--- a/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -148,31 +148,31 @@
     <t>safety</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
   </si>
   <si>
     <t>community</t>
@@ -1809,25 +1809,25 @@
         <v>44</v>
       </c>
       <c r="K26">
-        <v>0.6855895196506551</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L26">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1835,25 +1835,25 @@
         <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6829268292682927</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1861,25 +1861,25 @@
         <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6739130434782609</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N28">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1887,13 +1887,13 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6571428571428571</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1965,25 +1965,25 @@
         <v>50</v>
       </c>
       <c r="K32">
-        <v>0.6265432098765432</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L32">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="N32">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O32">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1991,25 +1991,25 @@
         <v>51</v>
       </c>
       <c r="K33">
-        <v>0.6190476190476191</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2017,25 +2017,25 @@
         <v>52</v>
       </c>
       <c r="K34">
-        <v>0.6153846153846154</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="10:17">
